--- a/Banking/RTM/RTM Report.xlsx
+++ b/Banking/RTM/RTM Report.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelesh MVS\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DC423C-9457-4757-AC6D-735947B4A185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="2544" yWindow="2544" windowWidth="17280" windowHeight="8964" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="16457" windowHeight="5365" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>Req</t>
   </si>
@@ -37,104 +32,167 @@
     <t>IT Mapping</t>
   </si>
   <si>
-    <t>F01</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>user_register()</t>
-  </si>
-  <si>
-    <t>Test_case 1</t>
+    <t>SBMS_01</t>
+  </si>
+  <si>
+    <t>options()</t>
   </si>
   <si>
     <t>IT_1</t>
   </si>
   <si>
-    <t>F02</t>
-  </si>
-  <si>
-    <t>b</t>
+    <t>is_user()</t>
+  </si>
+  <si>
+    <t>UT_1</t>
+  </si>
+  <si>
+    <t>IT_2</t>
+  </si>
+  <si>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>create_user()</t>
   </si>
   <si>
-    <t>Test_case 1.1</t>
-  </si>
-  <si>
-    <t>IT_2</t>
-  </si>
-  <si>
-    <t>F03</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>is_user()</t>
-  </si>
-  <si>
-    <t>Test_case 1.2</t>
-  </si>
-  <si>
     <t>IT_3</t>
   </si>
   <si>
-    <t>F04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d </t>
+    <t>1.1.2</t>
+  </si>
+  <si>
+    <t>user_registration()</t>
+  </si>
+  <si>
+    <t>UT_2</t>
+  </si>
+  <si>
+    <t>IT_4</t>
+  </si>
+  <si>
+    <t>debit()</t>
+  </si>
+  <si>
+    <t>1.1.3</t>
   </si>
   <si>
     <t>change_password()</t>
   </si>
   <si>
-    <t>Test_case 4</t>
-  </si>
-  <si>
-    <t>IT_4</t>
-  </si>
-  <si>
-    <t>debit()</t>
-  </si>
-  <si>
-    <t>F05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e </t>
-  </si>
-  <si>
-    <t>withdraw()</t>
-  </si>
-  <si>
-    <t>Test_case 5</t>
+    <t>UT_3</t>
   </si>
   <si>
     <t>IT_5</t>
   </si>
   <si>
-    <t>F06</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>validadatepass()</t>
-  </si>
-  <si>
-    <t>Test_Case 6</t>
+    <t>1.1.4</t>
+  </si>
+  <si>
+    <t>find_user()</t>
   </si>
   <si>
     <t>IT_6</t>
+  </si>
+  <si>
+    <t>1.1.5</t>
+  </si>
+  <si>
+    <t>get_balance()</t>
+  </si>
+  <si>
+    <t>IT_7</t>
+  </si>
+  <si>
+    <t>1.1.6</t>
+  </si>
+  <si>
+    <t>print_user()</t>
+  </si>
+  <si>
+    <t>IT_8</t>
+  </si>
+  <si>
+    <t>is_admin()</t>
+  </si>
+  <si>
+    <t>UT_4</t>
+  </si>
+  <si>
+    <t>IT_9</t>
+  </si>
+  <si>
+    <t>1.2.1</t>
+  </si>
+  <si>
+    <t>UT_5</t>
+  </si>
+  <si>
+    <t>IT_10</t>
+  </si>
+  <si>
+    <t>1.2.2</t>
+  </si>
+  <si>
+    <t>credit()</t>
+  </si>
+  <si>
+    <t>UT_6</t>
+  </si>
+  <si>
+    <t>IT_11</t>
+  </si>
+  <si>
+    <t>1.2.3</t>
+  </si>
+  <si>
+    <t>transfer()</t>
+  </si>
+  <si>
+    <t>UT_7</t>
+  </si>
+  <si>
+    <t>IT_12</t>
+  </si>
+  <si>
+    <t>1.2.4</t>
+  </si>
+  <si>
+    <t>print_all()</t>
+  </si>
+  <si>
+    <t>IT_13</t>
+  </si>
+  <si>
+    <t>SBMS_03</t>
+  </si>
+  <si>
+    <t>validatepass()</t>
+  </si>
+  <si>
+    <t>IT_14</t>
+  </si>
+  <si>
+    <t>SBMS_04</t>
+  </si>
+  <si>
+    <t>update_file()</t>
+  </si>
+  <si>
+    <t>IT_15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -158,8 +216,164 @@
       <name val="Calibri"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,8 +386,194 @@
         <bgColor rgb="FF339966"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -196,14 +596,259 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -215,16 +860,73 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Excel Built-in Accent6" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+  <cellStyles count="50">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="Excel Built-in Accent6" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -297,9 +999,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -557,28 +1256,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E2" sqref="E2:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.54054054054054" defaultRowHeight="14.55" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" customWidth="1"/>
+    <col min="1" max="1" width="13.5675675675676" customWidth="1"/>
+    <col min="2" max="2" width="17.2792792792793" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="30.109375" customWidth="1"/>
+    <col min="5" max="5" width="30.1441441441441" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -595,142 +1294,233 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2">
+        <v>1.1</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="E3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="5" t="s">
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="E5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="4" t="s">
+    </row>
+    <row r="6" hidden="1" spans="1:5">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="7"/>
+      <c r="B9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D9" s="5"/>
+      <c r="E9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="5" t="s">
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="7"/>
+      <c r="B10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="D10" s="5"/>
+      <c r="E10" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="7"/>
+      <c r="B11" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E8" t="s">
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="7"/>
+      <c r="B12" s="9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
+      <c r="C12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="7"/>
+      <c r="B13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="7"/>
+      <c r="B14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="7"/>
+      <c r="B15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>